--- a/tests/test_data.xlsx
+++ b/tests/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24810" windowHeight="13800" tabRatio="824" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="29400" windowHeight="12800" tabRatio="824" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="考核组成架构" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>考核表组成</t>
   </si>
@@ -71,13 +71,13 @@
     <t>任务编码：</t>
   </si>
   <si>
-    <t>YCP250701RW</t>
+    <t>KYG*****WE</t>
   </si>
   <si>
     <t>任务名称：</t>
   </si>
   <si>
-    <t>移动云盘个人知识库RAG能力研发任务</t>
+    <t>****个人知识库RAG能力研发任务</t>
   </si>
   <si>
     <t>一级指标</t>
@@ -110,7 +110,7 @@
     <t>开发进度</t>
   </si>
   <si>
-    <t>1、开发内容在上线前需发起CTC测试。若上线后再发起CTC测试，每出现1次，扣2分，扣完为止。
+    <t>1、开发内容在上线前需发起测试。若上线后再发起测试，每出现1次，扣2分，扣完为止。
 2、需求功能点能够按照要求按时开发完成并交付得25分，未能按时交付，每延迟一个工作日扣1分，扣满25分为止。
 说明：交付后因BUG导致的功能无法正常使用，按交付不及时计入延期进行扣分。</t>
   </si>
@@ -132,7 +132,7 @@
   </si>
   <si>
     <t>1、需求质量：未能按照需求说明书进行开发，每出现1处错误扣2分，每遗漏1项功能点扣2分，出现一次重大漏洞扣5分；
-2、验收测试质量：两轮CTC验收测试不通过的，每多发起一次验收测试扣5分；
+2、验收测试质量：两轮验收测试不通过的，每多发起一次验收测试扣5分；
 3、部署质量：上线割接，由于乙方人员原因（配置、流程等）未进行验证的，影响一般用户使用每次扣2分，影响重要用户使用每次扣3分，未按上线流程操作每次扣5分。</t>
   </si>
   <si>
@@ -216,8 +216,8 @@
   </si>
   <si>
     <t>单位时间发现的问题数量。
-基础目标：现网及CTC测试验收阶段发现的1-3级必现功能缺陷，月平均少于3个
-挑战目标：现网及CTC测试阶段发现的1-3级必现功能缺陷，月平均少于1个
+基础目标：现网及测试验收阶段发现的1-3级必现功能缺陷，月平均少于3个
+挑战目标：现网及测试阶段发现的1-3级必现功能缺陷，月平均少于1个
 数据来源：ones</t>
   </si>
   <si>
@@ -322,7 +322,7 @@
     <t>研发项目过程管理</t>
   </si>
   <si>
-    <t>需根据《中移互联网有限公司研发项目过程管理规范》按照研发项目类别管理过程资产，在研发管理视窗台研发项目“ODC订单资料”中完成过程资料归档进度100%。</t>
+    <t>需根据《***有限公司研发项目过程管理规范》按照研发项目类别管理过程资产，在研发管理视窗台研发项目“订单资料”中完成过程资料归档进度100%。</t>
   </si>
   <si>
     <t>完全满足二级指标得满分，不满足或不完全满足不得分。</t>
@@ -331,7 +331,7 @@
     <t>项目管理平台</t>
   </si>
   <si>
-    <t>原则上须使用互联网公司指定的项目管理平台对工作产品（技术文档、代码等）进行管理。如出现异常情况（包括但不限于下述内容），每发现一次扣1分，扣完为止。
+    <t>原则上须使用***公司指定的项目管理平台对工作产品（技术文档、代码等）进行管理。如出现异常情况（包括但不限于下述内容），每发现一次扣1分，扣完为止。
 1、最终交付物的总代码量低于15行/功能点。
 2、任务包所有人员在平台中录入的工作项（如需求、缺陷等）少于10个。
 3、任务包所有人员在平台中创建的文档少于10份。
@@ -388,9 +388,6 @@
     <t>在线客服AI交互能力升级研发（2025-2026）</t>
   </si>
   <si>
-    <t>PZ251201RW</t>
-  </si>
-  <si>
     <t>AI智能客服核心能力提升研发任务</t>
   </si>
   <si>
@@ -460,7 +457,7 @@
     <t>系统应对安全威胁（如系统设计缺陷、外部攻击等）的能力，如按照安全三同步中关于供应链安全考核相关要求。
 基础目标：通过系统工程部安全渗透测试，系统上线后累计安全漏洞不超过5个
 挑战目标：通过系统工程部安全渗透测试，系统上线后无安全漏洞
-数据来源：系统工程部安全渗透测试、系统部信安中心漏洞通报及云部安全小组漏洞通报</t>
+数据来源：系统工程部安全渗透测试、系统部中心漏洞通报及安全小组漏洞通报</t>
   </si>
 </sst>
 </file>
@@ -496,6 +493,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="微软雅黑"/>
@@ -522,12 +525,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -888,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -912,32 +909,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1003,6 +974,19 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1214,7 +1198,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,34 +1210,34 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1338,7 +1322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1346,11 +1330,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1358,183 +1339,180 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1875,61 +1853,61 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.1916666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="17.8333333333333" style="68" customWidth="1"/>
-    <col min="4" max="4" width="64.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.6666666666667"/>
+    <col min="1" max="1" width="13.1875" customWidth="1"/>
+    <col min="2" max="2" width="19.4196428571429" customWidth="1"/>
+    <col min="3" max="3" width="17.8303571428571" style="66" customWidth="1"/>
+    <col min="4" max="4" width="64.8303571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.6696428571429"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-    </row>
-    <row r="2" ht="28.5" spans="1:4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="70" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+    </row>
+    <row r="2" ht="34" spans="1:4">
+      <c r="A2" s="13"/>
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:4">
-      <c r="B3" s="70" t="s">
+    <row r="3" ht="34" spans="1:4">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:4">
-      <c r="B4" s="70"/>
-      <c r="C4" s="70" t="s">
+    <row r="4" ht="34" spans="1:4">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="69" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1946,127 +1924,127 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.58333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.2666666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.5833333333333" customWidth="1"/>
-    <col min="4" max="4" width="69.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.58035714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.2678571428571" customWidth="1"/>
+    <col min="3" max="3" width="13.5803571428571" customWidth="1"/>
+    <col min="4" max="4" width="69.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="49" t="s">
+    <row r="1" ht="17.55" spans="1:4">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-    </row>
-    <row r="2" ht="15" spans="1:4">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
-      <c r="A3" s="56" t="s">
+    <row r="3" ht="17.55" spans="1:4">
+      <c r="A3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:4">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="105" customHeight="1" spans="1:4">
-      <c r="A5" s="60"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="50.25" spans="1:4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="57" t="s">
+    <row r="6" ht="46.75" spans="1:4">
+      <c r="A6" s="60"/>
+      <c r="B6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="113" customHeight="1" spans="1:4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="103" customHeight="1" spans="1:4">
-      <c r="A8" s="62"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:4">
-      <c r="A9" s="64" t="s">
+    <row r="9" ht="17.55" spans="1:4">
+      <c r="A9" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2088,414 +2066,414 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.7583333333333" customWidth="1"/>
-    <col min="3" max="3" width="7.49166666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.5083333333333" customWidth="1"/>
-    <col min="5" max="5" width="106.975" customWidth="1"/>
-    <col min="6" max="6" width="18.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1696428571429" customWidth="1"/>
+    <col min="2" max="2" width="11.7589285714286" customWidth="1"/>
+    <col min="3" max="3" width="7.49107142857143" customWidth="1"/>
+    <col min="4" max="4" width="22.5089285714286" customWidth="1"/>
+    <col min="5" max="5" width="106.973214285714" customWidth="1"/>
+    <col min="6" max="6" width="18.5446428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="20" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="198" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" customFormat="1" ht="183" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="1" ht="132" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" customFormat="1" ht="122" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="66" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" customFormat="1" ht="61" spans="1:6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="66" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" customFormat="1" ht="61" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="33" hidden="1" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" customFormat="1" ht="46" hidden="1" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="33" hidden="1" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="26" t="s">
+    <row r="9" customFormat="1" ht="46" hidden="1" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="33" hidden="1" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="26" t="s">
+    <row r="10" customFormat="1" ht="46" hidden="1" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="33" hidden="1" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
+    <row r="11" customFormat="1" ht="46" hidden="1" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="33" hidden="1" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="26" t="s">
+    <row r="12" customFormat="1" ht="46" hidden="1" spans="1:6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="33" hidden="1" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" customFormat="1" ht="46" hidden="1" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:6">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" s="14" customFormat="1" ht="66" spans="1:6">
-      <c r="A15" s="28" t="s">
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" s="13" customFormat="1" ht="61" spans="1:6">
+      <c r="A15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" ht="49.5" spans="1:6">
-      <c r="A16" s="35"/>
-      <c r="B16" s="32" t="s">
+    <row r="16" ht="46" spans="1:6">
+      <c r="A16" s="33"/>
+      <c r="B16" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" s="15" customFormat="1" ht="140" customHeight="1" spans="1:6">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41" t="s">
+    <row r="17" s="14" customFormat="1" ht="140" customHeight="1" spans="1:6">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" ht="49.5" spans="1:6">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33" t="s">
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" ht="46" spans="1:6">
+      <c r="A18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" ht="132" spans="1:6">
-      <c r="A19" s="42"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33" t="s">
+    <row r="19" ht="122" spans="1:6">
+      <c r="A19" s="40"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" ht="82.5" spans="1:6">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="28" t="s">
+    <row r="20" ht="76" spans="1:6">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" ht="49.5" spans="1:6">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="24" t="s">
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" ht="46" spans="1:6">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" ht="33" spans="1:6">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="24" t="s">
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" ht="31" spans="1:6">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="24" t="s">
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="24" t="s">
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="31"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="24" t="s">
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" ht="31" spans="1:6">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="46" t="s">
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="31"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2528,16 +2506,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.66964285714286" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="12.8166666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.8125" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="65.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.9666666666667" customWidth="1"/>
+    <col min="5" max="5" width="65.1071428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.9642857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:6">
@@ -2555,152 +2533,152 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="76" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="82.5" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" ht="61" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" ht="66" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" ht="61" spans="1:6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" ht="61" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" ht="46" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="76" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" ht="49.5" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" ht="49.5" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" ht="82.5" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="F9" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
